--- a/examples/substation_data.xlsx
+++ b/examples/substation_data.xlsx
@@ -4,15 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="733" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Terminals" sheetId="1" r:id="rId1"/>
     <sheet name="ConnectivityNodes" sheetId="2" r:id="rId2"/>
     <sheet name="Branches" sheetId="3" r:id="rId3"/>
     <sheet name="Switches" sheetId="4" r:id="rId4"/>
-    <sheet name="Shunt" sheetId="5" r:id="rId5"/>
-    <sheet name="CN_T" sheetId="7" r:id="rId6"/>
+    <sheet name="Jumpers" sheetId="8" r:id="rId5"/>
+    <sheet name="Loads" sheetId="9" r:id="rId6"/>
+    <sheet name="Generators" sheetId="10" r:id="rId7"/>
+    <sheet name="Shunts" sheetId="5" r:id="rId8"/>
+    <sheet name="CN_T" sheetId="7" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="70">
   <si>
     <t>T1</t>
   </si>
@@ -150,6 +153,90 @@
   </si>
   <si>
     <t>SH1</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>T20</t>
+  </si>
+  <si>
+    <t>T21</t>
+  </si>
+  <si>
+    <t>T22</t>
+  </si>
+  <si>
+    <t>T23</t>
+  </si>
+  <si>
+    <t>CN4</t>
+  </si>
+  <si>
+    <t>Jumpers</t>
+  </si>
+  <si>
+    <t>J1</t>
+  </si>
+  <si>
+    <t>J2</t>
+  </si>
+  <si>
+    <t>Load</t>
+  </si>
+  <si>
+    <t>L1</t>
+  </si>
+  <si>
+    <t>Generators</t>
+  </si>
+  <si>
+    <t>G1</t>
+  </si>
+  <si>
+    <t>CN5</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>r0</t>
+  </si>
+  <si>
+    <t>x0</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>Vset</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>length</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>g0</t>
+  </si>
+  <si>
+    <t>b0</t>
   </si>
 </sst>
 </file>
@@ -467,10 +554,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A20"/>
+  <dimension ref="A1:A24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -575,6 +662,26 @@
         <v>18</v>
       </c>
     </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>46</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -582,9 +689,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -611,6 +720,16 @@
         <v>23</v>
       </c>
     </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>55</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -618,15 +737,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>24</v>
       </c>
@@ -636,8 +755,35 @@
       <c r="C1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K1" t="s">
+        <v>69</v>
+      </c>
+      <c r="L1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -647,8 +793,35 @@
       <c r="C2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2">
+        <v>0.01</v>
+      </c>
+      <c r="E2">
+        <v>0.05</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0.05</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -658,19 +831,73 @@
       <c r="C3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3">
+        <v>0.01</v>
+      </c>
+      <c r="E3">
+        <v>0.05</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0.04</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4">
+        <v>0.01</v>
+      </c>
+      <c r="E4">
+        <v>0.08</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0.03</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>28</v>
       </c>
@@ -679,6 +906,33 @@
       </c>
       <c r="C5" t="s">
         <v>18</v>
+      </c>
+      <c r="D5">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="E5">
+        <v>0.02</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -688,15 +942,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>31</v>
       </c>
@@ -706,8 +960,11 @@
       <c r="C1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>32</v>
       </c>
@@ -717,8 +974,11 @@
       <c r="C2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>33</v>
       </c>
@@ -728,8 +988,11 @@
       <c r="C3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>34</v>
       </c>
@@ -739,19 +1002,25 @@
       <c r="C4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="C5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>36</v>
       </c>
@@ -761,19 +1030,25 @@
       <c r="C6" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>37</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="C7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>38</v>
       </c>
@@ -783,8 +1058,11 @@
       <c r="C8" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>39</v>
       </c>
@@ -793,6 +1071,9 @@
       </c>
       <c r="C9" t="s">
         <v>17</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -802,28 +1083,45 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="B1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -833,10 +1131,139 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2">
+        <v>10</v>
+      </c>
+      <c r="D2">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2">
+        <v>6</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -886,10 +1313,10 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -897,7 +1324,7 @@
         <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -905,15 +1332,15 @@
         <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -921,7 +1348,55 @@
         <v>23</v>
       </c>
       <c r="B10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
